--- a/data/residence_time/result/103.xlsx
+++ b/data/residence_time/result/103.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="18350" windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>interval_index</t>
+  </si>
+  <si>
+    <t>second_time</t>
   </si>
   <si>
     <t>avg_frame_diff</t>
@@ -1183,15 +1186,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="32.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,424 +1210,547 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>A2*0.409380952</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>57.7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23.08</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>750</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">A3*0.409380952</f>
+        <v>307.035714</v>
+      </c>
+      <c r="C3">
         <v>72.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>600</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>29.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1500</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>614.071428</v>
+      </c>
+      <c r="C4">
         <v>51.86</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>900</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20.744</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2250</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>921.107142</v>
+      </c>
+      <c r="C5">
         <v>73.1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1200</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>29.24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3000</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1228.142856</v>
+      </c>
+      <c r="C6">
         <v>73.37</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1500</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>29.348</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3750</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1535.17857</v>
+      </c>
+      <c r="C7">
         <v>73.82</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1800</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>29.528</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4500</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1842.214284</v>
+      </c>
+      <c r="C8">
         <v>65.16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2100</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>26.064</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5250</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2149.249998</v>
+      </c>
+      <c r="C9">
         <v>37.33</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2400</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>14.932</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>6000</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2456.285712</v>
+      </c>
+      <c r="C10">
         <v>50.08</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2700</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>20.032</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6750</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2763.321426</v>
+      </c>
+      <c r="C11">
         <v>47.37</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>18.948</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>7500</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3070.35714</v>
+      </c>
+      <c r="C12">
         <v>50.11</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3300</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20.044</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>8250</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3377.392854</v>
+      </c>
+      <c r="C13">
         <v>53.38</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3600</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>21.352</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>9000</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3684.428568</v>
+      </c>
+      <c r="C14">
         <v>49.75</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3900</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>19.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>9750</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3991.464282</v>
+      </c>
+      <c r="C15">
         <v>38.48</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4200</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>15.392</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>10500</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4298.499996</v>
+      </c>
+      <c r="C16">
         <v>14.655737704918</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4500</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>11250</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>4605.53571</v>
+      </c>
+      <c r="C17">
         <v>30.2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4800</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>12.08</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>12000</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>4912.571424</v>
+      </c>
+      <c r="C18">
         <v>28.03</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5100</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>11.212</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>12750</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>5219.607138</v>
+      </c>
+      <c r="C19">
         <v>17.9</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5400</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7.16</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>13500</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>5526.642852</v>
+      </c>
+      <c r="C20">
         <v>11.41</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5700</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4.564</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>14250</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>5833.678566</v>
+      </c>
+      <c r="C21">
         <v>9.05952380952381</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3.62380952380952</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>15000</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>6140.71428</v>
+      </c>
+      <c r="C22">
         <v>8.39</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6300</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3.356</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>15750</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6447.749994</v>
+      </c>
+      <c r="C23">
         <v>10.75</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6600</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>4.3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>16500</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6754.785708</v>
+      </c>
+      <c r="C24">
         <v>7.27</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6900</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.908</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>17250</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>7061.821422</v>
+      </c>
+      <c r="C25">
         <v>11.48</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>7200</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4.592</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>18000</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>7368.857136</v>
+      </c>
+      <c r="C26">
         <v>7.86363636363636</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7500</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3.14545454545454</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>18750</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>7675.89285</v>
+      </c>
+      <c r="C27">
         <v>13.08</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>7800</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5.232</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>19500</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>7982.928564</v>
+      </c>
+      <c r="C28">
         <v>11.51</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8100</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.604</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>20250</v>
       </c>
       <c r="B29">
+        <f t="shared" si="0"/>
+        <v>8289.964278</v>
+      </c>
+      <c r="C29">
         <v>8.93</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8400</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.572</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>21000</v>
       </c>
       <c r="B30">
+        <f t="shared" si="0"/>
+        <v>8596.999992</v>
+      </c>
+      <c r="C30">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8700</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>21750</v>
       </c>
       <c r="B31">
+        <f t="shared" si="0"/>
+        <v>8904.035706</v>
+      </c>
+      <c r="C31">
         <v>4.67647058823529</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>9000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4</v>
       </c>
     </row>
